--- a/PlanilhaInvestimentos.xlsx
+++ b/PlanilhaInvestimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel Davi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D82983B-E1F3-4155-AD58-ED39B882ACEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88291B0B-4C9B-4234-9CFB-05A77B529717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26640" windowHeight="14370" tabRatio="259" xr2:uid="{5C86A60E-0787-4AFA-80BC-B8BD66E11A75}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="Aporte">Planilha1!$D$18</definedName>
-    <definedName name="DividendoMensal">Planilha1!$D$24</definedName>
+    <definedName name="DividendoMensal">Planilha1!$D$25</definedName>
     <definedName name="PatrimonioAcumulado">Planilha1!$D$22</definedName>
     <definedName name="PrecoMedioCompra">Planilha1!#REF!</definedName>
     <definedName name="PrecoVenda">Planilha1!#REF!</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>INVESTIMENTO MENSAL</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Patrimonio Liquido Acumulado Final</t>
+  </si>
+  <si>
+    <t>Total de Rendimento Bruto</t>
   </si>
 </sst>
 </file>
@@ -803,7 +806,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -913,6 +916,39 @@
     <xf numFmtId="165" fontId="5" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,44 +973,20 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1361,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CE4E67-C23C-40FF-8A37-8E07ED21C15B}">
-  <dimension ref="A11:J50"/>
+  <dimension ref="A11:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,66 +1395,79 @@
   </cols>
   <sheetData>
     <row r="11" spans="2:4" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="4">
+        <v>5000</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="5">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="14" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="6"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="6">
+        <f>Salario*40%</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="7">
+        <v>2000</v>
+      </c>
     </row>
     <row r="19" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="58" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="64">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="59"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1452,7 +1477,7 @@
       <c r="C22" s="20"/>
       <c r="D22" s="8">
         <f>FV(TaxaRendMensal,QntdAnos*12,Aporte*(-1))</f>
-        <v>0</v>
+        <v>163339.33971281827</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1462,232 +1487,243 @@
       <c r="C23" s="20"/>
       <c r="D23" s="42"/>
     </row>
-    <row r="24" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="60" t="s">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="42">
+        <f>FV(TaxaRendMensal,QntdAnos*12,Aporte*(-1))</f>
+        <v>163339.33971281827</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="9">
+      <c r="C25" s="63"/>
+      <c r="D25" s="9">
         <f>PatrimonioAcumulado*RendimentoCarteira</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="62" t="s">
+        <v>1633.3933971281826</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="21" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="16" t="s">
+    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C29" s="10">
         <f>FV(TaxaRendMensal,2*12,Aporte*(-1))</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
-        <f>C28*RendimentoCarteira</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="12">
-        <f>FV(TaxaRendMensal,5*12,Aporte*(-1))</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="13">
-        <f>C29*$D$13</f>
-        <v>0</v>
+        <v>53946.929706382994</v>
+      </c>
+      <c r="D29" s="11">
+        <f>C29*RendimentoCarteira</f>
+        <v>539.46929706382991</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="12">
-        <f>FV(TaxaRendMensal,10*12,Aporte*(-1))</f>
-        <v>0</v>
+        <f>FV(TaxaRendMensal,5*12,Aporte*(-1))</f>
+        <v>163339.33971281827</v>
       </c>
       <c r="D30" s="13">
         <f>C30*$D$13</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1633.3933971281826</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="12">
-        <f>FV(TaxaRendMensal,20*12,Aporte*(-1))</f>
-        <v>0</v>
+        <f>FV(TaxaRendMensal,10*12,Aporte*(-1))</f>
+        <v>460077.37891473394</v>
       </c>
       <c r="D31" s="13">
         <f>C31*$D$13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="18" t="s">
+        <v>4600.7737891473398</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="12">
+        <f>FV(TaxaRendMensal,20*12,Aporte*(-1))</f>
+        <v>1978510.730774726</v>
+      </c>
+      <c r="D32" s="13">
+        <f>C32*$D$13</f>
+        <v>19785.107307747261</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C33" s="14">
         <f>FV(TaxaRendMensal,30*12,Aporte*(-1))</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
-        <f>C32*$D$13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
+        <v>6989928.2655370124</v>
+      </c>
+      <c r="D33" s="15">
+        <f>C33*$D$13</f>
+        <v>69899.282655370131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+      <c r="C36" s="34"/>
+      <c r="D36" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="32">
+      <c r="C37" s="44"/>
+      <c r="D37" s="32">
         <f>Aporte</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="29" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="2:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C39" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="31" t="s">
+      <c r="D39" s="31" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="41">
-        <f>VLOOKUP($D$35&amp;" - "&amp;B39,Planilha2!$A:$D,4,)</f>
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="38">
-        <f>C39*$D$36</f>
-        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="41">
-        <f>VLOOKUP($D$35&amp;" - "&amp;B40,Planilha2!$A:$D,4,)</f>
-        <v>0.1</v>
+        <f>VLOOKUP($D$36&amp;" - "&amp;B40,Planilha2!$A:$D,4,)</f>
+        <v>0.3</v>
       </c>
       <c r="D40" s="38">
-        <f>C40*$D$36</f>
-        <v>0</v>
+        <f t="shared" ref="D40:D45" si="0">C40*$D$37</f>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C41" s="41">
-        <f>VLOOKUP($D$35&amp;" - "&amp;B41,Planilha2!$A:$D,4,)</f>
-        <v>0.05</v>
+        <f>VLOOKUP($D$36&amp;" - "&amp;B41,Planilha2!$A:$D,4,)</f>
+        <v>0.5</v>
       </c>
       <c r="D41" s="38">
-        <f>C41*$D$36</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="41">
-        <f>VLOOKUP($D$35&amp;" - "&amp;B42,Planilha2!$A:$D,4,)</f>
-        <v>0.05</v>
+        <f>VLOOKUP($D$36&amp;" - "&amp;B42,Planilha2!$A:$D,4,)</f>
+        <v>0.1</v>
       </c>
       <c r="D42" s="38">
-        <f>C42*$D$36</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="41">
-        <f>VLOOKUP($D$35&amp;" - "&amp;B43,Planilha2!$A:$D,4,)</f>
-        <v>0.2</v>
+        <f>VLOOKUP($D$36&amp;" - "&amp;B43,Planilha2!$A:$D,4,)</f>
+        <v>0.1</v>
       </c>
       <c r="D43" s="38">
-        <f>C43*$D$36</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="41">
+        <f>VLOOKUP($D$36&amp;" - "&amp;B44,Planilha2!$A:$D,4,)</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="41">
-        <f>VLOOKUP($D$35&amp;" - "&amp;B44,Planilha2!$A:$D,4,)</f>
-        <v>0.1</v>
-      </c>
-      <c r="D44" s="38">
-        <f>C44*$D$36</f>
+      <c r="C45" s="41">
+        <f>VLOOKUP($D$36&amp;" - "&amp;B45,Planilha2!$A:$D,4,)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="39">
-        <f>SUM(D39:D44)</f>
+      <c r="D45" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="39">
+        <f>SUM(D40:D45)</f>
+        <v>2000</v>
+      </c>
+    </row>
     <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Perfil não correspondente" error="Escolha um dos perfis disponiveis na lista." promptTitle="Escolha seu Perfil" sqref="D35" xr:uid="{AA700479-D55A-4EB4-B168-D645908FCC7C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Perfil não correspondente" error="Escolha um dos perfis disponiveis na lista." promptTitle="Escolha seu Perfil" sqref="D36" xr:uid="{AA700479-D55A-4EB4-B168-D645908FCC7C}">
       <formula1>"Conservador,Moderado,Agressivo"</formula1>
     </dataValidation>
   </dataValidations>
